--- a/medicine/Psychotrope/Schlossbrauerei_Reuth/Schlossbrauerei_Reuth.xlsx
+++ b/medicine/Psychotrope/Schlossbrauerei_Reuth/Schlossbrauerei_Reuth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Schlossbrauerei Reuth est une brasserie à Reuth bei Erbendorf, dans le Land de Bavière.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie du château de Reuth est créée au milieu du XVe siècle et ne produisait initialement de la bière que pour le château de Reuth. Ce n'est qu'au XVIIIe siècle que la bière est produite pour d'autres clients. En 1742, trois auberges de la région sont approvisionnées pour la première fois. À l'origine, la brasserie du château ne produit que le Reuther Lager.
-La brasserie propose des bières, des limonades, des jus et des schorles. L'eau utilisée pour la production provient de la source Artesia à 60 mètres de profondeur dans le parc du château. La bière de Reuth est une indication géographique protégée de l'Union Européenne depuis 1998 ; la Schloßbrauerei Reuth est la seule brasserie autorisée à brasser la bière sous ce nom[1].
+La brasserie propose des bières, des limonades, des jus et des schorles. L'eau utilisée pour la production provient de la source Artesia à 60 mètres de profondeur dans le parc du château. La bière de Reuth est une indication géographique protégée de l'Union Européenne depuis 1998 ; la Schloßbrauerei Reuth est la seule brasserie autorisée à brasser la bière sous ce nom.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Reuther Zoigl
 Reuther Winter Spezial Trunk
